--- a/Kappa_comparison.xlsx
+++ b/Kappa_comparison.xlsx
@@ -752,7 +752,7 @@
         <v>146.833</v>
       </c>
       <c r="AK2">
-        <v>134.706728174491</v>
+        <v>134.886690657749</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -862,7 +862,7 @@
         <v>61.742</v>
       </c>
       <c r="AK3">
-        <v>115.25851830329</v>
+        <v>119.964439110693</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -972,7 +972,7 @@
         <v>149.473</v>
       </c>
       <c r="AK4">
-        <v>131.80556161105</v>
+        <v>132.658558539122</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1085,7 +1085,7 @@
         <v>42</v>
       </c>
       <c r="AK5">
-        <v>53.8415979563453</v>
+        <v>87.9547552651841</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1195,7 +1195,7 @@
         <v>143.108</v>
       </c>
       <c r="AK6">
-        <v>131.80556161105</v>
+        <v>132.658558539122</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1308,7 +1308,7 @@
         <v>43</v>
       </c>
       <c r="AK7">
-        <v>78.1148918374011</v>
+        <v>119.650087839799</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1418,7 +1418,7 @@
         <v>137.797</v>
       </c>
       <c r="AK8">
-        <v>132.606887357864</v>
+        <v>133.492946466729</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1531,7 +1531,7 @@
         <v>44</v>
       </c>
       <c r="AK9">
-        <v>107.385731072383</v>
+        <v>111.994594338419</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1641,7 +1641,7 @@
         <v>16.236</v>
       </c>
       <c r="AK10">
-        <v>45.5336300827977</v>
+        <v>59.3583289802553</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1751,7 +1751,7 @@
         <v>19.917</v>
       </c>
       <c r="AK11">
-        <v>62.6705709898659</v>
+        <v>79.534121113246</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1864,7 +1864,7 @@
         <v>44</v>
       </c>
       <c r="AK12">
-        <v>35.9303122029189</v>
+        <v>61.9481817570061</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1977,7 +1977,7 @@
         <v>45</v>
       </c>
       <c r="AK13">
-        <v>35.9303122029189</v>
+        <v>61.9481817570061</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -2090,7 +2090,7 @@
         <v>46</v>
       </c>
       <c r="AK14">
-        <v>35.9303122029189</v>
+        <v>61.9481817570061</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -2200,7 +2200,7 @@
         <v>50.456</v>
       </c>
       <c r="AK15">
-        <v>107.355509670049</v>
+        <v>111.968818833534</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -2313,7 +2313,7 @@
         <v>30.74</v>
       </c>
       <c r="AK16">
-        <v>115.57093101326</v>
+        <v>120.2004180704</v>
       </c>
     </row>
     <row r="17" spans="1:37">
@@ -2426,7 +2426,7 @@
         <v>30.74</v>
       </c>
       <c r="AK17">
-        <v>131.818141333124</v>
+        <v>132.660670534871</v>
       </c>
     </row>
     <row r="18" spans="1:37">
@@ -2539,7 +2539,7 @@
         <v>30.74</v>
       </c>
       <c r="AK18">
-        <v>131.818141333124</v>
+        <v>132.660670534871</v>
       </c>
     </row>
     <row r="19" spans="1:37">
@@ -2652,7 +2652,7 @@
         <v>30.74</v>
       </c>
       <c r="AK19">
-        <v>115.57093101326</v>
+        <v>120.2004180704</v>
       </c>
     </row>
   </sheetData>
